--- a/DataSets/BotWinsOverRoundsWithScatter.xlsx
+++ b/DataSets/BotWinsOverRoundsWithScatter.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Dissertation_Artefact\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CE3989-707E-46C1-9BFD-D07D3DCA80E2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18F517-0A09-4BE5-B1FA-12321127808F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12210" xr2:uid="{58A40B09-3200-4D32-A2C9-3F1CCC5DAE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2520,7 +2520,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6</c15:sqref>
@@ -2563,7 +2563,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$6:$K$6</c15:sqref>
@@ -2608,7 +2608,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$7:$K$7</c15:sqref>
@@ -2652,7 +2652,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -2665,7 +2665,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$8</c15:sqref>
@@ -2708,7 +2708,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$8:$K$8</c15:sqref>
@@ -2753,7 +2753,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$9:$K$9</c15:sqref>
@@ -2797,7 +2797,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -2810,7 +2810,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$10</c15:sqref>
@@ -2853,7 +2853,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$10:$K$10</c15:sqref>
@@ -2898,7 +2898,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$11:$K$11</c15:sqref>
@@ -2942,7 +2942,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -2955,7 +2955,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$12</c15:sqref>
@@ -2998,7 +2998,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$12:$K$12</c15:sqref>
@@ -3043,7 +3043,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$13:$K$13</c15:sqref>
@@ -3087,7 +3087,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -3100,7 +3100,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$14</c15:sqref>
@@ -3143,7 +3143,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$14:$K$14</c15:sqref>
@@ -3188,7 +3188,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$15:$K$15</c15:sqref>
@@ -3232,7 +3232,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -3245,7 +3245,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$16</c15:sqref>
@@ -3288,7 +3288,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$16:$K$16</c15:sqref>
@@ -3333,7 +3333,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$17:$K$17</c15:sqref>
@@ -3377,7 +3377,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -3390,7 +3390,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$18</c15:sqref>
@@ -3433,7 +3433,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$18:$K$18</c15:sqref>
@@ -3478,7 +3478,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$19:$K$19</c15:sqref>
@@ -3522,7 +3522,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-40F2-44A2-A95C-6D68F7F13136}"/>
                   </c:ext>
@@ -5299,7 +5299,7 @@
   <dimension ref="A1:CM46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K19"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
